--- a/data/output/FV2504_FV2410/UTILMD/55041.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55041.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1790" uniqueCount="204">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1811" uniqueCount="204">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -757,6 +757,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U82" totalsRowShown="0">
+  <autoFilter ref="A1:U82"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1046,7 +1076,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4985,5 +5018,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55041.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55041.xlsx
@@ -981,7 +981,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1004,6 +1004,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1012,6 +1015,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1454,7 +1460,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1818,7 +1824,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1964,7 +1970,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2166,7 +2172,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2474,7 +2480,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2674,7 +2680,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3048,7 +3054,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -3356,7 +3362,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3532,26 +3538,26 @@
       <c r="V42" s="5"/>
     </row>
     <row r="43" spans="1:22">
-      <c r="A43" s="5" t="s">
+      <c r="A43" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="E43" s="2"/>
       <c r="F43" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2" t="s">
         <v>177</v>
       </c>
       <c r="K43" s="6" t="s">
@@ -3560,23 +3566,23 @@
       <c r="L43" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M43" s="5" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N43" s="5" t="s">
+      <c r="N43" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O43" s="5" t="s">
+      <c r="O43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="P43" s="5"/>
+      <c r="P43" s="2"/>
       <c r="Q43" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="R43" s="5"/>
-      <c r="S43" s="5"/>
-      <c r="T43" s="5"/>
-      <c r="U43" s="5" t="s">
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2" t="s">
         <v>177</v>
       </c>
       <c r="V43" s="6" t="s">
@@ -3784,7 +3790,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -4002,7 +4008,7 @@
         <v>187</v>
       </c>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -4260,26 +4266,26 @@
       <c r="B56" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C56" s="8" t="s">
+      <c r="C56" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="8" t="s">
+      <c r="D56" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
+      <c r="E56" s="9"/>
+      <c r="F56" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-      <c r="I56" s="8"/>
-      <c r="J56" s="8" t="s">
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="K56" s="8" t="s">
+      <c r="K56" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="L56" s="9" t="s">
+      <c r="L56" s="10" t="s">
         <v>194</v>
       </c>
       <c r="M56" s="5"/>
@@ -4297,33 +4303,33 @@
       <c r="A57" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="8" t="s">
+      <c r="C57" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D57" s="8" t="s">
+      <c r="D57" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E57" s="8" t="s">
+      <c r="E57" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G57" s="8" t="s">
+      <c r="G57" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="H57" s="8"/>
-      <c r="I57" s="8" t="s">
+      <c r="H57" s="9"/>
+      <c r="I57" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="J57" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K57" s="8"/>
-      <c r="L57" s="9" t="s">
+      <c r="J57" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K57" s="9"/>
+      <c r="L57" s="10" t="s">
         <v>194</v>
       </c>
       <c r="M57" s="5"/>
@@ -4341,33 +4347,33 @@
       <c r="A58" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="C58" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D58" s="8" t="s">
+      <c r="D58" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F58" s="8" t="s">
+      <c r="F58" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="G58" s="8" t="s">
+      <c r="G58" s="9" t="s">
         <v>124</v>
       </c>
-      <c r="H58" s="8"/>
-      <c r="I58" s="8" t="s">
+      <c r="H58" s="9"/>
+      <c r="I58" s="9" t="s">
         <v>163</v>
       </c>
-      <c r="J58" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K58" s="8"/>
-      <c r="L58" s="9" t="s">
+      <c r="J58" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K58" s="9"/>
+      <c r="L58" s="10" t="s">
         <v>194</v>
       </c>
       <c r="M58" s="5"/>
@@ -4385,31 +4391,31 @@
       <c r="A59" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="8" t="s">
+      <c r="D59" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8" t="s">
+      <c r="F59" s="9"/>
+      <c r="G59" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8" t="s">
+      <c r="H59" s="9"/>
+      <c r="I59" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="J59" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="K59" s="8"/>
-      <c r="L59" s="9" t="s">
+      <c r="J59" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K59" s="9"/>
+      <c r="L59" s="10" t="s">
         <v>194</v>
       </c>
       <c r="M59" s="5"/>
@@ -4437,29 +4443,29 @@
       <c r="I60" s="5"/>
       <c r="J60" s="5"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="10" t="s">
+      <c r="L60" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="N60" s="11" t="s">
+      <c r="N60" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O60" s="11" t="s">
+      <c r="O60" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P60" s="11"/>
-      <c r="Q60" s="11" t="s">
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="R60" s="11"/>
-      <c r="S60" s="11"/>
-      <c r="T60" s="11"/>
-      <c r="U60" s="11" t="s">
+      <c r="R60" s="13"/>
+      <c r="S60" s="13"/>
+      <c r="T60" s="13"/>
+      <c r="U60" s="13" t="s">
         <v>171</v>
       </c>
-      <c r="V60" s="11"/>
+      <c r="V60" s="13"/>
     </row>
     <row r="61" spans="1:22">
       <c r="A61" s="5" t="s">
@@ -4475,35 +4481,35 @@
       <c r="I61" s="5"/>
       <c r="J61" s="5"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="10" t="s">
+      <c r="L61" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="N61" s="11" t="s">
+      <c r="N61" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O61" s="11" t="s">
+      <c r="O61" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P61" s="11" t="s">
+      <c r="P61" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="Q61" s="11" t="s">
+      <c r="Q61" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="R61" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="S61" s="11"/>
-      <c r="T61" s="11" t="s">
+      <c r="S61" s="13"/>
+      <c r="T61" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="U61" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V61" s="11"/>
+      <c r="U61" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="V61" s="13"/>
     </row>
     <row r="62" spans="1:22">
       <c r="A62" s="5" t="s">
@@ -4519,35 +4525,35 @@
       <c r="I62" s="5"/>
       <c r="J62" s="5"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="10" t="s">
+      <c r="L62" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="N62" s="11" t="s">
+      <c r="N62" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O62" s="11" t="s">
+      <c r="O62" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P62" s="11" t="s">
+      <c r="P62" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q62" s="11" t="s">
+      <c r="Q62" s="13" t="s">
         <v>198</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="R62" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="S62" s="11"/>
-      <c r="T62" s="11" t="s">
+      <c r="S62" s="13"/>
+      <c r="T62" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="U62" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V62" s="11"/>
+      <c r="U62" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="V62" s="13"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -4563,55 +4569,55 @@
       <c r="I63" s="5"/>
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="10" t="s">
+      <c r="L63" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="13" t="s">
         <v>196</v>
       </c>
-      <c r="N63" s="11" t="s">
+      <c r="N63" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="O63" s="11" t="s">
+      <c r="O63" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="P63" s="11" t="s">
+      <c r="P63" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="Q63" s="11"/>
-      <c r="R63" s="11" t="s">
+      <c r="Q63" s="13"/>
+      <c r="R63" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="S63" s="11"/>
-      <c r="T63" s="11" t="s">
+      <c r="S63" s="13"/>
+      <c r="T63" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="U63" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="V63" s="11"/>
+      <c r="U63" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="V63" s="13"/>
     </row>
     <row r="64" spans="1:22">
-      <c r="A64" s="5" t="s">
+      <c r="A64" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D64" s="5" t="s">
+      <c r="D64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E64" s="5"/>
+      <c r="E64" s="2"/>
       <c r="F64" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="G64" s="5"/>
-      <c r="H64" s="5"/>
-      <c r="I64" s="5"/>
-      <c r="J64" s="5" t="s">
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
         <v>182</v>
       </c>
       <c r="K64" s="6" t="s">
@@ -4620,23 +4626,23 @@
       <c r="L64" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M64" s="5" t="s">
+      <c r="M64" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="N64" s="5" t="s">
+      <c r="N64" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O64" s="5" t="s">
+      <c r="O64" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P64" s="5"/>
+      <c r="P64" s="2"/>
       <c r="Q64" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="R64" s="5"/>
-      <c r="S64" s="5"/>
-      <c r="T64" s="5"/>
-      <c r="U64" s="5" t="s">
+      <c r="R64" s="2"/>
+      <c r="S64" s="2"/>
+      <c r="T64" s="2"/>
+      <c r="U64" s="2" t="s">
         <v>182</v>
       </c>
       <c r="V64" s="6" t="s">
@@ -4842,7 +4848,7 @@
         <v>191</v>
       </c>
       <c r="L68" s="4"/>
-      <c r="M68" s="2" t="s">
+      <c r="M68" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N68" s="2" t="s">
@@ -5050,7 +5056,7 @@
       </c>
       <c r="K72" s="2"/>
       <c r="L72" s="4"/>
-      <c r="M72" s="2" t="s">
+      <c r="M72" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N72" s="2" t="s">
@@ -5250,7 +5256,7 @@
       </c>
       <c r="K76" s="2"/>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -5432,48 +5438,48 @@
       <c r="V79" s="5"/>
     </row>
     <row r="80" spans="1:22">
-      <c r="A80" s="5" t="s">
+      <c r="A80" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5" t="s">
+      <c r="C80" s="2"/>
+      <c r="D80" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E80" s="5"/>
+      <c r="E80" s="2"/>
       <c r="F80" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G80" s="5"/>
-      <c r="H80" s="5"/>
-      <c r="I80" s="5"/>
-      <c r="J80" s="5" t="s">
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="K80" s="5"/>
+      <c r="K80" s="2"/>
       <c r="L80" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="M80" s="5" t="s">
+      <c r="M80" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N80" s="5"/>
-      <c r="O80" s="5" t="s">
+      <c r="N80" s="2"/>
+      <c r="O80" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="P80" s="5"/>
+      <c r="P80" s="2"/>
       <c r="Q80" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="R80" s="5"/>
-      <c r="S80" s="5"/>
-      <c r="T80" s="5"/>
-      <c r="U80" s="5" t="s">
+      <c r="R80" s="2"/>
+      <c r="S80" s="2"/>
+      <c r="T80" s="2"/>
+      <c r="U80" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="V80" s="5"/>
+      <c r="V80" s="2"/>
     </row>
     <row r="81" spans="1:22">
       <c r="A81" s="5" t="s">
